--- a/natmiOut/OldD0/LR-pairs_lrc2p/Tfpi-Vldlr.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Tfpi-Vldlr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,55 +525,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.09343825548492</v>
+        <v>3.745631333333333</v>
       </c>
       <c r="H2">
-        <v>3.09343825548492</v>
+        <v>11.236894</v>
       </c>
       <c r="I2">
-        <v>0.1206962936591686</v>
+        <v>0.1419671142338921</v>
       </c>
       <c r="J2">
-        <v>0.1206962936591686</v>
+        <v>0.1419671142338921</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>27.3874184929622</v>
+        <v>0.06089466666666667</v>
       </c>
       <c r="N2">
-        <v>27.3874184929622</v>
+        <v>0.182684</v>
       </c>
       <c r="O2">
-        <v>0.8802160875901095</v>
+        <v>0.001903591634475228</v>
       </c>
       <c r="P2">
-        <v>0.8802160875901095</v>
+        <v>0.001903591634475228</v>
       </c>
       <c r="Q2">
-        <v>84.72128808510442</v>
+        <v>0.2280889714995556</v>
       </c>
       <c r="R2">
-        <v>84.72128808510442</v>
+        <v>2.052800743496</v>
       </c>
       <c r="S2">
-        <v>0.1062388193913004</v>
+        <v>0.000270247411026226</v>
       </c>
       <c r="T2">
-        <v>0.1062388193913004</v>
+        <v>0.000270247411026226</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.09343825548492</v>
+        <v>3.745631333333333</v>
       </c>
       <c r="H3">
-        <v>3.09343825548492</v>
+        <v>11.236894</v>
       </c>
       <c r="I3">
-        <v>0.1206962936591686</v>
+        <v>0.1419671142338921</v>
       </c>
       <c r="J3">
-        <v>0.1206962936591686</v>
+        <v>0.1419671142338921</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.72700770202426</v>
+        <v>28.046323</v>
       </c>
       <c r="N3">
-        <v>3.72700770202426</v>
+        <v>84.138969</v>
       </c>
       <c r="O3">
-        <v>0.1197839124098905</v>
+        <v>0.8767392739472014</v>
       </c>
       <c r="P3">
-        <v>0.1197839124098905</v>
+        <v>0.8767392739472013</v>
       </c>
       <c r="Q3">
-        <v>11.52926820392879</v>
+        <v>105.0511862135873</v>
       </c>
       <c r="R3">
-        <v>11.52926820392879</v>
+        <v>945.460675922286</v>
       </c>
       <c r="S3">
-        <v>0.01445747426786827</v>
+        <v>0.1244681446578019</v>
       </c>
       <c r="T3">
-        <v>0.01445747426786827</v>
+        <v>0.1244681446578019</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.6232945993912</v>
+        <v>3.745631333333333</v>
       </c>
       <c r="H4">
-        <v>15.6232945993912</v>
+        <v>11.236894</v>
       </c>
       <c r="I4">
-        <v>0.6095721320922987</v>
+        <v>0.1419671142338921</v>
       </c>
       <c r="J4">
-        <v>0.6095721320922987</v>
+        <v>0.1419671142338921</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>27.3874184929622</v>
+        <v>3.882136333333333</v>
       </c>
       <c r="N4">
-        <v>27.3874184929622</v>
+        <v>11.646409</v>
       </c>
       <c r="O4">
-        <v>0.8802160875901095</v>
+        <v>0.1213571344183235</v>
       </c>
       <c r="P4">
-        <v>0.8802160875901095</v>
+        <v>0.1213571344183235</v>
       </c>
       <c r="Q4">
-        <v>427.881707432363</v>
+        <v>14.54105149040511</v>
       </c>
       <c r="R4">
-        <v>427.881707432363</v>
+        <v>130.869463413646</v>
       </c>
       <c r="S4">
-        <v>0.5365551972142446</v>
+        <v>0.01722872216506392</v>
       </c>
       <c r="T4">
-        <v>0.5365551972142446</v>
+        <v>0.01722872216506392</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,60 +711,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>15.6232945993912</v>
+        <v>15.68955666666667</v>
       </c>
       <c r="H5">
-        <v>15.6232945993912</v>
+        <v>47.06867</v>
       </c>
       <c r="I5">
-        <v>0.6095721320922987</v>
+        <v>0.5946663954227359</v>
       </c>
       <c r="J5">
-        <v>0.6095721320922987</v>
+        <v>0.5946663954227359</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>3.72700770202426</v>
+        <v>0.06089466666666667</v>
       </c>
       <c r="N5">
-        <v>3.72700770202426</v>
+        <v>0.182684</v>
       </c>
       <c r="O5">
-        <v>0.1197839124098905</v>
+        <v>0.001903591634475228</v>
       </c>
       <c r="P5">
-        <v>0.1197839124098905</v>
+        <v>0.001903591634475228</v>
       </c>
       <c r="Q5">
-        <v>58.22813930292502</v>
+        <v>0.9554103233644445</v>
       </c>
       <c r="R5">
-        <v>58.22813930292502</v>
+        <v>8.59869291028</v>
       </c>
       <c r="S5">
-        <v>0.07301693487805409</v>
+        <v>0.001132001975630258</v>
       </c>
       <c r="T5">
-        <v>0.07301693487805409</v>
+        <v>0.001132001975630258</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,57 +776,57 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.91320292608834</v>
+        <v>15.68955666666667</v>
       </c>
       <c r="H6">
-        <v>6.91320292608834</v>
+        <v>47.06867</v>
       </c>
       <c r="I6">
-        <v>0.2697315742485327</v>
+        <v>0.5946663954227359</v>
       </c>
       <c r="J6">
-        <v>0.2697315742485327</v>
+        <v>0.5946663954227359</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>27.3874184929622</v>
+        <v>28.046323</v>
       </c>
       <c r="N6">
-        <v>27.3874184929622</v>
+        <v>84.138969</v>
       </c>
       <c r="O6">
-        <v>0.8802160875901095</v>
+        <v>0.8767392739472014</v>
       </c>
       <c r="P6">
-        <v>0.8802160875901095</v>
+        <v>0.8767392739472013</v>
       </c>
       <c r="Q6">
-        <v>189.3347816635522</v>
+        <v>440.0343740001367</v>
       </c>
       <c r="R6">
-        <v>189.3347816635522</v>
+        <v>3960.30936600123</v>
       </c>
       <c r="S6">
-        <v>0.2374220709845646</v>
+        <v>0.5213673837637288</v>
       </c>
       <c r="T6">
-        <v>0.2374220709845646</v>
+        <v>0.5213673837637288</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,52 +838,238 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.91320292608834</v>
+        <v>15.68955666666667</v>
       </c>
       <c r="H7">
-        <v>6.91320292608834</v>
+        <v>47.06867</v>
       </c>
       <c r="I7">
-        <v>0.2697315742485327</v>
+        <v>0.5946663954227359</v>
       </c>
       <c r="J7">
-        <v>0.2697315742485327</v>
+        <v>0.5946663954227359</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.72700770202426</v>
+        <v>3.882136333333333</v>
       </c>
       <c r="N7">
-        <v>3.72700770202426</v>
+        <v>11.646409</v>
       </c>
       <c r="O7">
-        <v>0.1197839124098905</v>
+        <v>0.1213571344183235</v>
       </c>
       <c r="P7">
-        <v>0.1197839124098905</v>
+        <v>0.1213571344183235</v>
       </c>
       <c r="Q7">
-        <v>25.7655605511879</v>
+        <v>60.90899798955889</v>
       </c>
       <c r="R7">
-        <v>25.7655605511879</v>
+        <v>548.18098190603</v>
       </c>
       <c r="S7">
-        <v>0.03230950326396811</v>
+        <v>0.07216700968337686</v>
       </c>
       <c r="T7">
-        <v>0.03230950326396811</v>
+        <v>0.07216700968337686</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>6.948607666666667</v>
+      </c>
+      <c r="H8">
+        <v>20.845823</v>
+      </c>
+      <c r="I8">
+        <v>0.263366490343372</v>
+      </c>
+      <c r="J8">
+        <v>0.263366490343372</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.06089466666666667</v>
+      </c>
+      <c r="N8">
+        <v>0.182684</v>
+      </c>
+      <c r="O8">
+        <v>0.001903591634475228</v>
+      </c>
+      <c r="P8">
+        <v>0.001903591634475228</v>
+      </c>
+      <c r="Q8">
+        <v>0.4231331476591111</v>
+      </c>
+      <c r="R8">
+        <v>3.808198328932</v>
+      </c>
+      <c r="S8">
+        <v>0.0005013422478187439</v>
+      </c>
+      <c r="T8">
+        <v>0.0005013422478187438</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>6.948607666666667</v>
+      </c>
+      <c r="H9">
+        <v>20.845823</v>
+      </c>
+      <c r="I9">
+        <v>0.263366490343372</v>
+      </c>
+      <c r="J9">
+        <v>0.263366490343372</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>28.046323</v>
+      </c>
+      <c r="N9">
+        <v>84.138969</v>
+      </c>
+      <c r="O9">
+        <v>0.8767392739472014</v>
+      </c>
+      <c r="P9">
+        <v>0.8767392739472013</v>
+      </c>
+      <c r="Q9">
+        <v>194.8828950196097</v>
+      </c>
+      <c r="R9">
+        <v>1753.946055176487</v>
+      </c>
+      <c r="S9">
+        <v>0.2309037455256706</v>
+      </c>
+      <c r="T9">
+        <v>0.2309037455256706</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>6.948607666666667</v>
+      </c>
+      <c r="H10">
+        <v>20.845823</v>
+      </c>
+      <c r="I10">
+        <v>0.263366490343372</v>
+      </c>
+      <c r="J10">
+        <v>0.263366490343372</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>3.882136333333333</v>
+      </c>
+      <c r="N10">
+        <v>11.646409</v>
+      </c>
+      <c r="O10">
+        <v>0.1213571344183235</v>
+      </c>
+      <c r="P10">
+        <v>0.1213571344183235</v>
+      </c>
+      <c r="Q10">
+        <v>26.97544228884522</v>
+      </c>
+      <c r="R10">
+        <v>242.778980599607</v>
+      </c>
+      <c r="S10">
+        <v>0.03196140256988268</v>
+      </c>
+      <c r="T10">
+        <v>0.03196140256988268</v>
       </c>
     </row>
   </sheetData>
